--- a/Code/Results/Cases/Case_4_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_121/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9521050944202898</v>
+        <v>0.5341408786989064</v>
       </c>
       <c r="C2">
-        <v>0.112051521894486</v>
+        <v>0.03856766815198398</v>
       </c>
       <c r="D2">
-        <v>0.4170093221965914</v>
+        <v>0.617020563227868</v>
       </c>
       <c r="E2">
-        <v>0.1456590510740625</v>
+        <v>0.2351380644541905</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008260252395462808</v>
+        <v>0.002515417273624479</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05941762387176297</v>
+        <v>0.1101405180386799</v>
       </c>
       <c r="K2">
-        <v>0.969436075532542</v>
+        <v>0.4952642386334389</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3980786579000721</v>
+        <v>0.3580431246268532</v>
       </c>
       <c r="N2">
-        <v>1.143010299665491</v>
+        <v>2.38255128027653</v>
       </c>
       <c r="O2">
-        <v>2.877371890973734</v>
+        <v>5.534750650312361</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.828256563359048</v>
+        <v>0.5015122491333841</v>
       </c>
       <c r="C3">
-        <v>0.09751470864640055</v>
+        <v>0.03446157335696398</v>
       </c>
       <c r="D3">
-        <v>0.3831203848782394</v>
+        <v>0.6116952897218084</v>
       </c>
       <c r="E3">
-        <v>0.1351466543855864</v>
+        <v>0.2337616974073136</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008304168870188951</v>
+        <v>0.002518313550613195</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05616027977140092</v>
+        <v>0.1099336660209254</v>
       </c>
       <c r="K3">
-        <v>0.8418150948853054</v>
+        <v>0.4611112161629762</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.351299157306336</v>
+        <v>0.347266301744078</v>
       </c>
       <c r="N3">
-        <v>1.191776463692218</v>
+        <v>2.403493213796065</v>
       </c>
       <c r="O3">
-        <v>2.808280453262313</v>
+        <v>5.548900556750908</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7527207006543222</v>
+        <v>0.4817097504417234</v>
       </c>
       <c r="C4">
-        <v>0.0886137651045118</v>
+        <v>0.03194520565540415</v>
       </c>
       <c r="D4">
-        <v>0.3628121279491126</v>
+        <v>0.6087097194675692</v>
       </c>
       <c r="E4">
-        <v>0.1288757305340056</v>
+        <v>0.2330216455758141</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008332033025128182</v>
+        <v>0.002520187734710964</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05424033782671245</v>
+        <v>0.1098528224466619</v>
       </c>
       <c r="K4">
-        <v>0.7639061883436682</v>
+        <v>0.4403359474610511</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3229105379102037</v>
+        <v>0.3408242104516006</v>
       </c>
       <c r="N4">
-        <v>1.223077041742652</v>
+        <v>2.417037316283132</v>
       </c>
       <c r="O4">
-        <v>2.770563558492057</v>
+        <v>5.560034520731392</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7220503060696899</v>
+        <v>0.4736986863694312</v>
       </c>
       <c r="C5">
-        <v>0.08499096548808893</v>
+        <v>0.03092100569445222</v>
       </c>
       <c r="D5">
-        <v>0.3546541995615229</v>
+        <v>0.6075646538674704</v>
       </c>
       <c r="E5">
-        <v>0.1263637633761086</v>
+        <v>0.2327465199450494</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008343618285678617</v>
+        <v>0.002520975657303036</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05347700404860944</v>
+        <v>0.1098314981509994</v>
       </c>
       <c r="K5">
-        <v>0.7322542906044305</v>
+        <v>0.431919215132524</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3114182366503542</v>
+        <v>0.3382431284478997</v>
       </c>
       <c r="N5">
-        <v>1.236165699908511</v>
+        <v>2.422729072984581</v>
       </c>
       <c r="O5">
-        <v>2.756322430962229</v>
+        <v>5.565186979899124</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7169637525930455</v>
+        <v>0.4723720065261716</v>
       </c>
       <c r="C6">
-        <v>0.08438961777983423</v>
+        <v>0.03075101403499048</v>
       </c>
       <c r="D6">
-        <v>0.3533064794801248</v>
+        <v>0.6073788433634348</v>
       </c>
       <c r="E6">
-        <v>0.1259492028893803</v>
+        <v>0.232702434259501</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008345556046211345</v>
+        <v>0.002521107953705346</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05335137367795895</v>
+        <v>0.1098286594410283</v>
       </c>
       <c r="K6">
-        <v>0.7270038801373175</v>
+        <v>0.4305246151293147</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3095143383197865</v>
+        <v>0.3378172106862394</v>
       </c>
       <c r="N6">
-        <v>1.238358972139409</v>
+        <v>2.423684599160424</v>
       </c>
       <c r="O6">
-        <v>2.754024343448748</v>
+        <v>5.566079710481461</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7523066404526162</v>
+        <v>0.4816014726041828</v>
       </c>
       <c r="C7">
-        <v>0.08856489122794642</v>
+        <v>0.03193138786761551</v>
       </c>
       <c r="D7">
-        <v>0.3627016401070904</v>
+        <v>0.6086939867307564</v>
       </c>
       <c r="E7">
-        <v>0.1288416806801216</v>
+        <v>0.2330178279840212</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008332188329316209</v>
+        <v>0.00252019826297553</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05422996745828002</v>
+        <v>0.1098524877949032</v>
       </c>
       <c r="K7">
-        <v>0.7634789500730221</v>
+        <v>0.4402222361269992</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3227552497395081</v>
+        <v>0.3407892222444957</v>
       </c>
       <c r="N7">
-        <v>1.223252220277633</v>
+        <v>2.417113379155786</v>
       </c>
       <c r="O7">
-        <v>2.770366996963077</v>
+        <v>5.560101517041261</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9092864692340186</v>
+        <v>0.5228426694909558</v>
       </c>
       <c r="C8">
-        <v>0.1070329711091773</v>
+        <v>0.03715091228846745</v>
       </c>
       <c r="D8">
-        <v>0.4052158728759565</v>
+        <v>0.6151254995233018</v>
       </c>
       <c r="E8">
-        <v>0.1419945608824698</v>
+        <v>0.2346417129282869</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008275210785657713</v>
+        <v>0.002516396058402107</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05827720245570234</v>
+        <v>0.1100596207356723</v>
       </c>
       <c r="K8">
-        <v>0.9253283565695085</v>
+        <v>0.4834480497289348</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.381874921001284</v>
+        <v>0.3542910491137974</v>
       </c>
       <c r="N8">
-        <v>1.159538056156354</v>
+        <v>2.389629754294383</v>
       </c>
       <c r="O8">
-        <v>2.852538835542902</v>
+        <v>5.539122036687075</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.221959765470785</v>
+        <v>0.6055423739819048</v>
       </c>
       <c r="C9">
-        <v>0.1435339422279611</v>
+        <v>0.04742335792768415</v>
       </c>
       <c r="D9">
-        <v>0.4929281563752284</v>
+        <v>0.6299884206613626</v>
       </c>
       <c r="E9">
-        <v>0.1693763603905722</v>
+        <v>0.2386583919828666</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008170409139223297</v>
+        <v>0.002509697221063629</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06690130165097941</v>
+        <v>0.110831727479038</v>
       </c>
       <c r="K9">
-        <v>1.247111677502801</v>
+        <v>0.5697480821175418</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5008364964722887</v>
+        <v>0.3821517382726256</v>
       </c>
       <c r="N9">
-        <v>1.045751385977386</v>
+        <v>2.341173851912316</v>
       </c>
       <c r="O9">
-        <v>3.053630025052911</v>
+        <v>5.517381795879857</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.455848504531502</v>
+        <v>0.6674056650519447</v>
       </c>
       <c r="C10">
-        <v>0.1706604541523546</v>
+        <v>0.05499243404422316</v>
       </c>
       <c r="D10">
-        <v>0.5605817449548738</v>
+        <v>0.6422769177200394</v>
       </c>
       <c r="E10">
-        <v>0.1906587329360576</v>
+        <v>0.2421157899573743</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008097334819328438</v>
+        <v>0.002505232589981769</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07373437453760801</v>
+        <v>0.1116217733426197</v>
       </c>
       <c r="K10">
-        <v>1.487444572706409</v>
+        <v>0.6340795092157521</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5906497814691392</v>
+        <v>0.4034613279940302</v>
       </c>
       <c r="N10">
-        <v>0.969515306106743</v>
+        <v>2.308886732478509</v>
       </c>
       <c r="O10">
-        <v>3.229622491688559</v>
+        <v>5.513234282034063</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.563448840359484</v>
+        <v>0.695787011169557</v>
       </c>
       <c r="C11">
-        <v>0.183101113761694</v>
+        <v>0.05844047531542174</v>
       </c>
       <c r="D11">
-        <v>0.5921918225882052</v>
+        <v>0.6481638862585442</v>
       </c>
       <c r="E11">
-        <v>0.2006407038879701</v>
+        <v>0.2437984256657515</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000806487206140738</v>
+        <v>0.002503299759635233</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.076969537179437</v>
+        <v>0.1120295127327253</v>
       </c>
       <c r="K11">
-        <v>1.597927611237708</v>
+        <v>0.6635453911624722</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6321681797196419</v>
+        <v>0.4133375762011866</v>
       </c>
       <c r="N11">
-        <v>0.9365674646569317</v>
+        <v>2.29491743197427</v>
       </c>
       <c r="O11">
-        <v>3.31675620051945</v>
+        <v>5.513915304680268</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.604393335899857</v>
+        <v>0.706568434289494</v>
       </c>
       <c r="C12">
-        <v>0.1878294977181696</v>
+        <v>0.0597468286703986</v>
       </c>
       <c r="D12">
-        <v>0.6042937726315927</v>
+        <v>0.6504357273703363</v>
       </c>
       <c r="E12">
-        <v>0.204468045110481</v>
+        <v>0.2444513650574436</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008052685037617902</v>
+        <v>0.002502581886334966</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07821451843882699</v>
+        <v>0.1121908569908356</v>
       </c>
       <c r="K12">
-        <v>1.639957200113827</v>
+        <v>0.6747320111436181</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6479974356275022</v>
+        <v>0.4171035849029394</v>
       </c>
       <c r="N12">
-        <v>0.9243525289513812</v>
+        <v>2.289730912365044</v>
       </c>
       <c r="O12">
-        <v>3.350853130051121</v>
+        <v>5.514542342866378</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.595565945589186</v>
+        <v>0.7042449551802008</v>
       </c>
       <c r="C13">
-        <v>0.186810333972474</v>
+        <v>0.05946545360271216</v>
       </c>
       <c r="D13">
-        <v>0.6016813346988386</v>
+        <v>0.6499445540921442</v>
       </c>
       <c r="E13">
-        <v>0.2036415813269841</v>
+        <v>0.244310042412458</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008055305123082026</v>
+        <v>0.00250273586942633</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07794547665129414</v>
+        <v>0.1121558000135536</v>
       </c>
       <c r="K13">
-        <v>1.630896397037048</v>
+        <v>0.6723215098866149</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6445833565531842</v>
+        <v>0.4162913495483807</v>
       </c>
       <c r="N13">
-        <v>0.9269713838326439</v>
+        <v>2.290843324518065</v>
       </c>
       <c r="O13">
-        <v>3.343459357005258</v>
+        <v>5.514390882320669</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.566813235169917</v>
+        <v>0.6966733257840758</v>
       </c>
       <c r="C14">
-        <v>0.1834897550132126</v>
+        <v>0.05854793689259452</v>
       </c>
       <c r="D14">
-        <v>0.5931847420947065</v>
+        <v>0.6483499394117018</v>
       </c>
       <c r="E14">
-        <v>0.2009546068324894</v>
+        <v>0.2438518276890491</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008063867341753506</v>
+        <v>0.002503240418460794</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07707155378984964</v>
+        <v>0.1120426475444418</v>
       </c>
       <c r="K14">
-        <v>1.601381404987876</v>
+        <v>0.664465151636108</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.633468243034514</v>
+        <v>0.413646885979432</v>
       </c>
       <c r="N14">
-        <v>0.935557214123385</v>
+        <v>2.294488662188172</v>
       </c>
       <c r="O14">
-        <v>3.319538799036167</v>
+        <v>5.513959493678271</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.549228024068924</v>
+        <v>0.6920399029500004</v>
       </c>
       <c r="C15">
-        <v>0.1814581577104946</v>
+        <v>0.05798601553365756</v>
       </c>
       <c r="D15">
-        <v>0.5879978814071762</v>
+        <v>0.6473787328258425</v>
       </c>
       <c r="E15">
-        <v>0.1993150576605842</v>
+        <v>0.2435732095726735</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008069125552764613</v>
+        <v>0.002503551296780155</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07653889346542542</v>
+        <v>0.1119742421870313</v>
       </c>
       <c r="K15">
-        <v>1.583328440679225</v>
+        <v>0.6596566088963414</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6266742387604083</v>
+        <v>0.4120304688703982</v>
       </c>
       <c r="N15">
-        <v>0.9408507541853339</v>
+        <v>2.296734998135221</v>
       </c>
       <c r="O15">
-        <v>3.305032793532149</v>
+        <v>5.513743327278178</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.448842921449909</v>
+        <v>0.6655556604952153</v>
       </c>
       <c r="C16">
-        <v>0.1698496958586304</v>
+        <v>0.05476719024694887</v>
       </c>
       <c r="D16">
-        <v>0.5585337380221631</v>
+        <v>0.641898154371745</v>
       </c>
       <c r="E16">
-        <v>0.1900127841719339</v>
+        <v>0.2420080332504142</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008099471500588021</v>
+        <v>0.002505360874632176</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07352563942556145</v>
+        <v>0.1115960985932176</v>
       </c>
       <c r="K16">
-        <v>1.48024965691107</v>
+        <v>0.632157858741806</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.587950776787487</v>
+        <v>0.4028195503130547</v>
       </c>
       <c r="N16">
-        <v>0.9717044381003959</v>
+        <v>2.309814118042464</v>
       </c>
       <c r="O16">
-        <v>3.224077482622931</v>
+        <v>5.513241437528507</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.387585653922287</v>
+        <v>0.6493694693526493</v>
       </c>
       <c r="C17">
-        <v>0.1627560518064826</v>
+        <v>0.05279375415959464</v>
       </c>
       <c r="D17">
-        <v>0.5406803028263312</v>
+        <v>0.6386119501291603</v>
       </c>
       <c r="E17">
-        <v>0.184385978853463</v>
+        <v>0.2410759585938962</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008118283084224805</v>
+        <v>0.002506496083701606</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07171071880961932</v>
+        <v>0.1113764948804601</v>
       </c>
       <c r="K17">
-        <v>1.417327735804065</v>
+        <v>0.6153395109830626</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5643729342847976</v>
+        <v>0.3972155681395293</v>
       </c>
       <c r="N17">
-        <v>0.9910845208818841</v>
+        <v>2.31802174615828</v>
       </c>
       <c r="O17">
-        <v>3.176283608661521</v>
+        <v>5.51359114145697</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.352463698518136</v>
+        <v>0.6400821603568829</v>
       </c>
       <c r="C18">
-        <v>0.1586852635231253</v>
+        <v>0.05165914296010499</v>
       </c>
       <c r="D18">
-        <v>0.5304892229682991</v>
+        <v>0.6367497620410063</v>
       </c>
       <c r="E18">
-        <v>0.1811776069646669</v>
+        <v>0.2405501953631415</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008129176733795196</v>
+        <v>0.002507158268356789</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07067864887785902</v>
+        <v>0.1112547355249021</v>
       </c>
       <c r="K18">
-        <v>1.381243690969882</v>
+        <v>0.605685003410116</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5508731133721696</v>
+        <v>0.394009483514921</v>
       </c>
       <c r="N18">
-        <v>1.002393677943253</v>
+        <v>2.322810159839712</v>
       </c>
       <c r="O18">
-        <v>3.149454256700949</v>
+        <v>5.514033975509875</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.340590428824271</v>
+        <v>0.6369415241783258</v>
       </c>
       <c r="C19">
-        <v>0.1573084754298861</v>
+        <v>0.05127506280902594</v>
       </c>
       <c r="D19">
-        <v>0.527051701371704</v>
+        <v>0.63612406105932</v>
       </c>
       <c r="E19">
-        <v>0.1800959974440772</v>
+        <v>0.2403739581674884</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008132877978203904</v>
+        <v>0.002507384062203633</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07033118987236975</v>
+        <v>0.1112142918113008</v>
       </c>
       <c r="K19">
-        <v>1.369043866309141</v>
+        <v>0.602419421873833</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5463125243632376</v>
+        <v>0.3929269129738202</v>
       </c>
       <c r="N19">
-        <v>1.006250262215854</v>
+        <v>2.32444304341918</v>
       </c>
       <c r="O19">
-        <v>3.140481269765587</v>
+        <v>5.514225425419767</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.394094865002785</v>
+        <v>0.6510901850912205</v>
       </c>
       <c r="C20">
-        <v>0.1635102008150966</v>
+        <v>0.05300378278572282</v>
       </c>
       <c r="D20">
-        <v>0.5425727015660584</v>
+        <v>0.6389588803330639</v>
       </c>
       <c r="E20">
-        <v>0.1849820329468059</v>
+        <v>0.2411741094786422</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008116272971979683</v>
+        <v>0.002506374282512476</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07190268476092854</v>
+        <v>0.1113994011397281</v>
       </c>
       <c r="K20">
-        <v>1.42401462743004</v>
+        <v>0.6171278933051951</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5668763839911932</v>
+        <v>0.3978103448126049</v>
       </c>
       <c r="N20">
-        <v>0.9890045980354145</v>
+        <v>2.317141033005871</v>
       </c>
       <c r="O20">
-        <v>3.181302408723951</v>
+        <v>5.513528901142507</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.57525300000259</v>
+        <v>0.6988963767276175</v>
       </c>
       <c r="C21">
-        <v>0.1844645936121054</v>
+        <v>0.05881741633143633</v>
       </c>
       <c r="D21">
-        <v>0.5956767177562767</v>
+        <v>0.64881716187503</v>
       </c>
       <c r="E21">
-        <v>0.2017425154954253</v>
+        <v>0.2439859889632459</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008061349586108307</v>
+        <v>0.00250309183938995</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07732769222905489</v>
+        <v>0.1120756948337984</v>
       </c>
       <c r="K21">
-        <v>1.610045243169026</v>
+        <v>0.6667719833976378</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6367300135804754</v>
+        <v>0.414422922149825</v>
       </c>
       <c r="N21">
-        <v>0.9330281400323912</v>
+        <v>2.293415132693156</v>
       </c>
       <c r="O21">
-        <v>3.326534255484177</v>
+        <v>5.514076185055046</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.694821143389419</v>
+        <v>0.7303386120873938</v>
       </c>
       <c r="C22">
-        <v>0.198262311766598</v>
+        <v>0.06262076119105586</v>
       </c>
       <c r="D22">
-        <v>0.6311582963149931</v>
+        <v>0.6555082184259788</v>
       </c>
       <c r="E22">
-        <v>0.2129748316518558</v>
+        <v>0.2459155705655292</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008026068199625822</v>
+        <v>0.002501028423479898</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08099008348757053</v>
+        <v>0.1125581519300027</v>
       </c>
       <c r="K22">
-        <v>1.732760094946713</v>
+        <v>0.6993833745052029</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6830141310486653</v>
+        <v>0.4254321957047011</v>
       </c>
       <c r="N22">
-        <v>0.8979762262696838</v>
+        <v>2.278511328206562</v>
       </c>
       <c r="O22">
-        <v>3.427914650717014</v>
+        <v>5.516585514900328</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.630889266564964</v>
+        <v>0.7135393048853587</v>
       </c>
       <c r="C23">
-        <v>0.1908877783337601</v>
+        <v>0.06059050990985781</v>
       </c>
       <c r="D23">
-        <v>0.6121460013570754</v>
+        <v>0.6519144126328342</v>
       </c>
       <c r="E23">
-        <v>0.2069529980699301</v>
+        <v>0.2448773230287884</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008044844472742222</v>
+        <v>0.002502122239940406</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07902412044344942</v>
+        <v>0.11229695653509</v>
       </c>
       <c r="K23">
-        <v>1.667152031070913</v>
+        <v>0.6819629949683588</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6582495132888013</v>
+        <v>0.4195424787765418</v>
       </c>
       <c r="N23">
-        <v>0.9165394984581212</v>
+        <v>2.286410623373754</v>
       </c>
       <c r="O23">
-        <v>3.373185137884121</v>
+        <v>5.515049390915806</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.391151754611286</v>
+        <v>0.6503121923236677</v>
       </c>
       <c r="C24">
-        <v>0.1631692270838982</v>
+        <v>0.05290882901603311</v>
       </c>
       <c r="D24">
-        <v>0.5417169213050386</v>
+        <v>0.6388019487847032</v>
       </c>
       <c r="E24">
-        <v>0.1847124744947592</v>
+        <v>0.2411297040045142</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008117181498466474</v>
+        <v>0.002506429319157566</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07181586171951437</v>
+        <v>0.1113890312214849</v>
       </c>
       <c r="K24">
-        <v>1.420991203454321</v>
+        <v>0.6163193201984996</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5657444027294787</v>
+        <v>0.3975413973044439</v>
       </c>
       <c r="N24">
-        <v>0.9899444110258671</v>
+        <v>2.317538986185159</v>
       </c>
       <c r="O24">
-        <v>3.179031397172423</v>
+        <v>5.513556286820801</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.136734808461284</v>
+        <v>0.5829754020194002</v>
       </c>
       <c r="C25">
-        <v>0.1336155820976757</v>
+        <v>0.04464049643574697</v>
       </c>
       <c r="D25">
-        <v>0.4686788772642956</v>
+        <v>0.6257270019353314</v>
       </c>
       <c r="E25">
-        <v>0.1617792950178547</v>
+        <v>0.2374827816397875</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008198048855683624</v>
+        <v>0.002511428845048925</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06448694724758397</v>
+        <v>0.1105837087441444</v>
       </c>
       <c r="K25">
-        <v>1.15946747814084</v>
+        <v>0.546238263262012</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4682739858518232</v>
+        <v>0.3744668825562272</v>
       </c>
       <c r="N25">
-        <v>1.07528381357233</v>
+        <v>2.353700410911578</v>
       </c>
       <c r="O25">
-        <v>2.994566757157088</v>
+        <v>5.52118637785324</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_121/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_121/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5341408786989064</v>
+        <v>0.9521050944202898</v>
       </c>
       <c r="C2">
-        <v>0.03856766815198398</v>
+        <v>0.1120515218944718</v>
       </c>
       <c r="D2">
-        <v>0.617020563227868</v>
+        <v>0.4170093221967193</v>
       </c>
       <c r="E2">
-        <v>0.2351380644541905</v>
+        <v>0.1456590510740661</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002515417273624479</v>
+        <v>0.0008260252395169239</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1101405180386799</v>
+        <v>0.05941762387173455</v>
       </c>
       <c r="K2">
-        <v>0.4952642386334389</v>
+        <v>0.9694360755325988</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3580431246268532</v>
+        <v>0.398078657900065</v>
       </c>
       <c r="N2">
-        <v>2.38255128027653</v>
+        <v>1.143010299665509</v>
       </c>
       <c r="O2">
-        <v>5.534750650312361</v>
+        <v>2.877371890973734</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5015122491333841</v>
+        <v>0.8282565633589343</v>
       </c>
       <c r="C3">
-        <v>0.03446157335696398</v>
+        <v>0.09751470864678424</v>
       </c>
       <c r="D3">
-        <v>0.6116952897218084</v>
+        <v>0.383120384878552</v>
       </c>
       <c r="E3">
-        <v>0.2337616974073136</v>
+        <v>0.1351466543856006</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002518313550613195</v>
+        <v>0.0008304168870190062</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1099336660209254</v>
+        <v>0.05616027977140092</v>
       </c>
       <c r="K3">
-        <v>0.4611112161629762</v>
+        <v>0.8418150948851633</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.347266301744078</v>
+        <v>0.3512991573063431</v>
       </c>
       <c r="N3">
-        <v>2.403493213796065</v>
+        <v>1.191776463692172</v>
       </c>
       <c r="O3">
-        <v>5.548900556750908</v>
+        <v>2.808280453262313</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4817097504417234</v>
+        <v>0.7527207006541516</v>
       </c>
       <c r="C4">
-        <v>0.03194520565540415</v>
+        <v>0.08861376510436969</v>
       </c>
       <c r="D4">
-        <v>0.6087097194675692</v>
+        <v>0.3628121279489989</v>
       </c>
       <c r="E4">
-        <v>0.2330216455758141</v>
+        <v>0.1288757305340162</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002520187734710964</v>
+        <v>0.0008332033024820995</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1098528224466619</v>
+        <v>0.05424033782668403</v>
       </c>
       <c r="K4">
-        <v>0.4403359474610511</v>
+        <v>0.7639061883436966</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3408242104516006</v>
+        <v>0.3229105379102108</v>
       </c>
       <c r="N4">
-        <v>2.417037316283132</v>
+        <v>1.223077041742616</v>
       </c>
       <c r="O4">
-        <v>5.560034520731392</v>
+        <v>2.770563558492</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4736986863694312</v>
+        <v>0.7220503060696899</v>
       </c>
       <c r="C5">
-        <v>0.03092100569445222</v>
+        <v>0.08499096548760576</v>
       </c>
       <c r="D5">
-        <v>0.6075646538674704</v>
+        <v>0.3546541995615513</v>
       </c>
       <c r="E5">
-        <v>0.2327465199450494</v>
+        <v>0.1263637633761405</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002520975657303036</v>
+        <v>0.0008343618285682082</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1098314981509994</v>
+        <v>0.05347700404855971</v>
       </c>
       <c r="K5">
-        <v>0.431919215132524</v>
+        <v>0.7322542906044021</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3382431284478997</v>
+        <v>0.31141823665034</v>
       </c>
       <c r="N5">
-        <v>2.422729072984581</v>
+        <v>1.236165699908536</v>
       </c>
       <c r="O5">
-        <v>5.565186979899124</v>
+        <v>2.756322430962314</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4723720065261716</v>
+        <v>0.7169637525929318</v>
       </c>
       <c r="C6">
-        <v>0.03075101403499048</v>
+        <v>0.08438961778004739</v>
       </c>
       <c r="D6">
-        <v>0.6073788433634348</v>
+        <v>0.3533064794801959</v>
       </c>
       <c r="E6">
-        <v>0.232702434259501</v>
+        <v>0.1259492028893732</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002521107953705346</v>
+        <v>0.0008345556045380605</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1098286594410283</v>
+        <v>0.05335137367798382</v>
       </c>
       <c r="K6">
-        <v>0.4305246151293147</v>
+        <v>0.7270038801373175</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3378172106862394</v>
+        <v>0.3095143383197936</v>
       </c>
       <c r="N6">
-        <v>2.423684599160424</v>
+        <v>1.238358972139423</v>
       </c>
       <c r="O6">
-        <v>5.566079710481461</v>
+        <v>2.754024343448833</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4816014726041828</v>
+        <v>0.7523066404527015</v>
       </c>
       <c r="C7">
-        <v>0.03193138786761551</v>
+        <v>0.088564891228188</v>
       </c>
       <c r="D7">
-        <v>0.6086939867307564</v>
+        <v>0.362701640107133</v>
       </c>
       <c r="E7">
-        <v>0.2330178279840212</v>
+        <v>0.1288416806801074</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00252019826297553</v>
+        <v>0.0008332188329067578</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1098524877949032</v>
+        <v>0.05422996745823383</v>
       </c>
       <c r="K7">
-        <v>0.4402222361269992</v>
+        <v>0.7634789500729653</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3407892222444957</v>
+        <v>0.3227552497394939</v>
       </c>
       <c r="N7">
-        <v>2.417113379155786</v>
+        <v>1.22325222027753</v>
       </c>
       <c r="O7">
-        <v>5.560101517041261</v>
+        <v>2.77036699696302</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5228426694909558</v>
+        <v>0.9092864692338765</v>
       </c>
       <c r="C8">
-        <v>0.03715091228846745</v>
+        <v>0.1070329711089499</v>
       </c>
       <c r="D8">
-        <v>0.6151254995233018</v>
+        <v>0.4052158728759991</v>
       </c>
       <c r="E8">
-        <v>0.2346417129282869</v>
+        <v>0.1419945608824627</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002516396058402107</v>
+        <v>0.000827521078480101</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1100596207356723</v>
+        <v>0.05827720245569168</v>
       </c>
       <c r="K8">
-        <v>0.4834480497289348</v>
+        <v>0.9253283565695085</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3542910491137974</v>
+        <v>0.3818749210012982</v>
       </c>
       <c r="N8">
-        <v>2.389629754294383</v>
+        <v>1.1595380561564</v>
       </c>
       <c r="O8">
-        <v>5.539122036687075</v>
+        <v>2.852538835542902</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6055423739819048</v>
+        <v>1.221959765470842</v>
       </c>
       <c r="C9">
-        <v>0.04742335792768415</v>
+        <v>0.1435339422279753</v>
       </c>
       <c r="D9">
-        <v>0.6299884206613626</v>
+        <v>0.4929281563752568</v>
       </c>
       <c r="E9">
-        <v>0.2386583919828666</v>
+        <v>0.1693763603905794</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002509697221063629</v>
+        <v>0.0008170409139206578</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.110831727479038</v>
+        <v>0.06690130165092256</v>
       </c>
       <c r="K9">
-        <v>0.5697480821175418</v>
+        <v>1.247111677502801</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3821517382726256</v>
+        <v>0.5008364964722958</v>
       </c>
       <c r="N9">
-        <v>2.341173851912316</v>
+        <v>1.045751385977439</v>
       </c>
       <c r="O9">
-        <v>5.517381795879857</v>
+        <v>3.053630025052883</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6674056650519447</v>
+        <v>1.455848504531531</v>
       </c>
       <c r="C10">
-        <v>0.05499243404422316</v>
+        <v>0.1706604541521273</v>
       </c>
       <c r="D10">
-        <v>0.6422769177200394</v>
+        <v>0.5605817449549875</v>
       </c>
       <c r="E10">
-        <v>0.2421157899573743</v>
+        <v>0.1906587329360647</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002505232589981769</v>
+        <v>0.000809733481875352</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1116217733426197</v>
+        <v>0.07373437453763643</v>
       </c>
       <c r="K10">
-        <v>0.6340795092157521</v>
+        <v>1.487444572706352</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4034613279940302</v>
+        <v>0.5906497814691392</v>
       </c>
       <c r="N10">
-        <v>2.308886732478509</v>
+        <v>0.9695153061067003</v>
       </c>
       <c r="O10">
-        <v>5.513234282034063</v>
+        <v>3.229622491688588</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.695787011169557</v>
+        <v>1.563448840359655</v>
       </c>
       <c r="C11">
-        <v>0.05844047531542174</v>
+        <v>0.1831011137616798</v>
       </c>
       <c r="D11">
-        <v>0.6481638862585442</v>
+        <v>0.5921918225880347</v>
       </c>
       <c r="E11">
-        <v>0.2437984256657515</v>
+        <v>0.2006407038879914</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002503299759635233</v>
+        <v>0.000806487206140879</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1120295127327253</v>
+        <v>0.07696953717947963</v>
       </c>
       <c r="K11">
-        <v>0.6635453911624722</v>
+        <v>1.597927611237679</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4133375762011866</v>
+        <v>0.632168179719649</v>
       </c>
       <c r="N11">
-        <v>2.29491743197427</v>
+        <v>0.9365674646568394</v>
       </c>
       <c r="O11">
-        <v>5.513915304680268</v>
+        <v>3.316756200519336</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.706568434289494</v>
+        <v>1.604393335899772</v>
       </c>
       <c r="C12">
-        <v>0.0597468286703986</v>
+        <v>0.1878294977182975</v>
       </c>
       <c r="D12">
-        <v>0.6504357273703363</v>
+        <v>0.6042937726315358</v>
       </c>
       <c r="E12">
-        <v>0.2444513650574436</v>
+        <v>0.2044680451105094</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002502581886334966</v>
+        <v>0.0008052685037622543</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1121908569908356</v>
+        <v>0.07821451843883409</v>
       </c>
       <c r="K12">
-        <v>0.6747320111436181</v>
+        <v>1.639957200113827</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4171035849029394</v>
+        <v>0.6479974356275022</v>
       </c>
       <c r="N12">
-        <v>2.289730912365044</v>
+        <v>0.9243525289513741</v>
       </c>
       <c r="O12">
-        <v>5.514542342866378</v>
+        <v>3.350853130051092</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7042449551802008</v>
+        <v>1.5955659455893</v>
       </c>
       <c r="C13">
-        <v>0.05946545360271216</v>
+        <v>0.1868103339724598</v>
       </c>
       <c r="D13">
-        <v>0.6499445540921442</v>
+        <v>0.6016813346988101</v>
       </c>
       <c r="E13">
-        <v>0.244310042412458</v>
+        <v>0.2036415813269841</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00250273586942633</v>
+        <v>0.0008055305122455746</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1121558000135536</v>
+        <v>0.07794547665124441</v>
       </c>
       <c r="K13">
-        <v>0.6723215098866149</v>
+        <v>1.630896397036963</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4162913495483807</v>
+        <v>0.6445833565531842</v>
       </c>
       <c r="N13">
-        <v>2.290843324518065</v>
+        <v>0.9269713838326581</v>
       </c>
       <c r="O13">
-        <v>5.514390882320669</v>
+        <v>3.343459357005258</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6966733257840758</v>
+        <v>1.566813235169974</v>
       </c>
       <c r="C14">
-        <v>0.05854793689259452</v>
+        <v>0.1834897550132411</v>
       </c>
       <c r="D14">
-        <v>0.6483499394117018</v>
+        <v>0.5931847420945076</v>
       </c>
       <c r="E14">
-        <v>0.2438518276890491</v>
+        <v>0.2009546068324894</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002503240418460794</v>
+        <v>0.0008063867341395059</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1120426475444418</v>
+        <v>0.07707155378976438</v>
       </c>
       <c r="K14">
-        <v>0.664465151636108</v>
+        <v>1.601381404987848</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.413646885979432</v>
+        <v>0.6334682430345211</v>
       </c>
       <c r="N14">
-        <v>2.294488662188172</v>
+        <v>0.9355572141233424</v>
       </c>
       <c r="O14">
-        <v>5.513959493678271</v>
+        <v>3.31953879903611</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6920399029500004</v>
+        <v>1.549228024068753</v>
       </c>
       <c r="C15">
-        <v>0.05798601553365756</v>
+        <v>0.1814581577103525</v>
       </c>
       <c r="D15">
-        <v>0.6473787328258425</v>
+        <v>0.5879978814070626</v>
       </c>
       <c r="E15">
-        <v>0.2435732095726735</v>
+        <v>0.1993150576605842</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002503551296780155</v>
+        <v>0.0008069125553100345</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1119742421870313</v>
+        <v>0.07653889346547516</v>
       </c>
       <c r="K15">
-        <v>0.6596566088963414</v>
+        <v>1.583328440679253</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4120304688703982</v>
+        <v>0.6266742387603941</v>
       </c>
       <c r="N15">
-        <v>2.296734998135221</v>
+        <v>0.9408507541853126</v>
       </c>
       <c r="O15">
-        <v>5.513743327278178</v>
+        <v>3.305032793532177</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6655556604952153</v>
+        <v>1.448842921449653</v>
       </c>
       <c r="C16">
-        <v>0.05476719024694887</v>
+        <v>0.1698496958585309</v>
       </c>
       <c r="D16">
-        <v>0.641898154371745</v>
+        <v>0.5585337380223621</v>
       </c>
       <c r="E16">
-        <v>0.2420080332504142</v>
+        <v>0.1900127841719268</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002505360874632176</v>
+        <v>0.0008099471500638559</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1115960985932176</v>
+        <v>0.07352563942563961</v>
       </c>
       <c r="K16">
-        <v>0.632157858741806</v>
+        <v>1.480249656911099</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4028195503130547</v>
+        <v>0.587950776787487</v>
       </c>
       <c r="N16">
-        <v>2.309814118042464</v>
+        <v>0.9717044381003532</v>
       </c>
       <c r="O16">
-        <v>5.513241437528507</v>
+        <v>3.224077482622903</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6493694693526493</v>
+        <v>1.387585653922343</v>
       </c>
       <c r="C17">
-        <v>0.05279375415959464</v>
+        <v>0.1627560518065962</v>
       </c>
       <c r="D17">
-        <v>0.6386119501291603</v>
+        <v>0.5406803028263312</v>
       </c>
       <c r="E17">
-        <v>0.2410759585938962</v>
+        <v>0.1843859788534559</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002506496083701606</v>
+        <v>0.0008118283084207269</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1113764948804601</v>
+        <v>0.07171071880959801</v>
       </c>
       <c r="K17">
-        <v>0.6153395109830626</v>
+        <v>1.417327735804037</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3972155681395293</v>
+        <v>0.5643729342847976</v>
       </c>
       <c r="N17">
-        <v>2.31802174615828</v>
+        <v>0.9910845208818628</v>
       </c>
       <c r="O17">
-        <v>5.51359114145697</v>
+        <v>3.176283608661493</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6400821603568829</v>
+        <v>1.352463698517994</v>
       </c>
       <c r="C18">
-        <v>0.05165914296010499</v>
+        <v>0.1586852635229121</v>
       </c>
       <c r="D18">
-        <v>0.6367497620410063</v>
+        <v>0.5304892229682707</v>
       </c>
       <c r="E18">
-        <v>0.2405501953631415</v>
+        <v>0.1811776069646456</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002507158268356789</v>
+        <v>0.0008129176734086074</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1112547355249021</v>
+        <v>0.07067864887779507</v>
       </c>
       <c r="K18">
-        <v>0.605685003410116</v>
+        <v>1.38124369096991</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.394009483514921</v>
+        <v>0.5508731133721483</v>
       </c>
       <c r="N18">
-        <v>2.322810159839712</v>
+        <v>1.002393677943214</v>
       </c>
       <c r="O18">
-        <v>5.514033975509875</v>
+        <v>3.149454256700949</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6369415241783258</v>
+        <v>1.340590428824186</v>
       </c>
       <c r="C19">
-        <v>0.05127506280902594</v>
+        <v>0.1573084754301419</v>
       </c>
       <c r="D19">
-        <v>0.63612406105932</v>
+        <v>0.5270517013716471</v>
       </c>
       <c r="E19">
-        <v>0.2403739581674884</v>
+        <v>0.1800959974441056</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002507384062203633</v>
+        <v>0.0008132877978193956</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1112142918113008</v>
+        <v>0.07033118987242659</v>
       </c>
       <c r="K19">
-        <v>0.602419421873833</v>
+        <v>1.369043866309141</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3929269129738202</v>
+        <v>0.5463125243632163</v>
       </c>
       <c r="N19">
-        <v>2.32444304341918</v>
+        <v>1.006250262215929</v>
       </c>
       <c r="O19">
-        <v>5.514225425419767</v>
+        <v>3.140481269765672</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6510901850912205</v>
+        <v>1.394094865002785</v>
       </c>
       <c r="C20">
-        <v>0.05300378278572282</v>
+        <v>0.1635102008152103</v>
       </c>
       <c r="D20">
-        <v>0.6389588803330639</v>
+        <v>0.5425727015659731</v>
       </c>
       <c r="E20">
-        <v>0.2411741094786422</v>
+        <v>0.1849820329468201</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002506374282512476</v>
+        <v>0.0008116272971982297</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1113994011397281</v>
+        <v>0.07190268476096406</v>
       </c>
       <c r="K20">
-        <v>0.6171278933051951</v>
+        <v>1.424014627430012</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3978103448126049</v>
+        <v>0.5668763839911932</v>
       </c>
       <c r="N20">
-        <v>2.317141033005871</v>
+        <v>0.9890045980353861</v>
       </c>
       <c r="O20">
-        <v>5.513528901142507</v>
+        <v>3.181302408723752</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6988963767276175</v>
+        <v>1.575253000002704</v>
       </c>
       <c r="C21">
-        <v>0.05881741633143633</v>
+        <v>0.1844645936121054</v>
       </c>
       <c r="D21">
-        <v>0.64881716187503</v>
+        <v>0.5956767177561062</v>
       </c>
       <c r="E21">
-        <v>0.2439859889632459</v>
+        <v>0.2017425154954253</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00250309183938995</v>
+        <v>0.0008061349586106933</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1120756948337984</v>
+        <v>0.07732769222899805</v>
       </c>
       <c r="K21">
-        <v>0.6667719833976378</v>
+        <v>1.610045243169111</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.414422922149825</v>
+        <v>0.6367300135804754</v>
       </c>
       <c r="N21">
-        <v>2.293415132693156</v>
+        <v>0.9330281400323344</v>
       </c>
       <c r="O21">
-        <v>5.514076185055046</v>
+        <v>3.326534255484177</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7303386120873938</v>
+        <v>1.694821143389532</v>
       </c>
       <c r="C22">
-        <v>0.06262076119105586</v>
+        <v>0.1982623117669817</v>
       </c>
       <c r="D22">
-        <v>0.6555082184259788</v>
+        <v>0.6311582963149078</v>
       </c>
       <c r="E22">
-        <v>0.2459155705655292</v>
+        <v>0.2129748316518771</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002501028423479898</v>
+        <v>0.0008026068199907619</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1125581519300027</v>
+        <v>0.08099008348761316</v>
       </c>
       <c r="K22">
-        <v>0.6993833745052029</v>
+        <v>1.732760094946713</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4254321957047011</v>
+        <v>0.6830141310486653</v>
       </c>
       <c r="N22">
-        <v>2.278511328206562</v>
+        <v>0.8979762262696838</v>
       </c>
       <c r="O22">
-        <v>5.516585514900328</v>
+        <v>3.427914650717014</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7135393048853587</v>
+        <v>1.63088926656485</v>
       </c>
       <c r="C23">
-        <v>0.06059050990985781</v>
+        <v>0.1908877783335043</v>
       </c>
       <c r="D23">
-        <v>0.6519144126328342</v>
+        <v>0.6121460013571323</v>
       </c>
       <c r="E23">
-        <v>0.2448773230287884</v>
+        <v>0.2069529980699585</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002502122239940406</v>
+        <v>0.0008044844472100795</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.11229695653509</v>
+        <v>0.0790241204434281</v>
       </c>
       <c r="K23">
-        <v>0.6819629949683588</v>
+        <v>1.667152031070998</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4195424787765418</v>
+        <v>0.6582495132888084</v>
       </c>
       <c r="N23">
-        <v>2.286410623373754</v>
+        <v>0.9165394984581141</v>
       </c>
       <c r="O23">
-        <v>5.515049390915806</v>
+        <v>3.37318513788415</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6503121923236677</v>
+        <v>1.391151754611428</v>
       </c>
       <c r="C24">
-        <v>0.05290882901603311</v>
+        <v>0.1631692270840261</v>
       </c>
       <c r="D24">
-        <v>0.6388019487847032</v>
+        <v>0.541716921305067</v>
       </c>
       <c r="E24">
-        <v>0.2411297040045142</v>
+        <v>0.1847124744947379</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002506429319157566</v>
+        <v>0.0008117181498473736</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1113890312214849</v>
+        <v>0.07181586171959253</v>
       </c>
       <c r="K24">
-        <v>0.6163193201984996</v>
+        <v>1.420991203454236</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3975413973044439</v>
+        <v>0.5657444027295071</v>
       </c>
       <c r="N24">
-        <v>2.317538986185159</v>
+        <v>0.9899444110258742</v>
       </c>
       <c r="O24">
-        <v>5.513556286820801</v>
+        <v>3.179031397172366</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5829754020194002</v>
+        <v>1.136734808461341</v>
       </c>
       <c r="C25">
-        <v>0.04464049643574697</v>
+        <v>0.1336155820975478</v>
       </c>
       <c r="D25">
-        <v>0.6257270019353314</v>
+        <v>0.4686788772643808</v>
       </c>
       <c r="E25">
-        <v>0.2374827816397875</v>
+        <v>0.1617792950178618</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002511428845048925</v>
+        <v>0.0008198048856000864</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1105837087441444</v>
+        <v>0.06448694724760529</v>
       </c>
       <c r="K25">
-        <v>0.546238263262012</v>
+        <v>1.159467478140812</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3744668825562272</v>
+        <v>0.4682739858518232</v>
       </c>
       <c r="N25">
-        <v>2.353700410911578</v>
+        <v>1.075283813572394</v>
       </c>
       <c r="O25">
-        <v>5.52118637785324</v>
+        <v>2.994566757157031</v>
       </c>
     </row>
   </sheetData>
